--- a/docs/CareConnect-Appointment-1.xlsx
+++ b/docs/CareConnect-Appointment-1.xlsx
@@ -219,8 +219,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -379,8 +378,7 @@
     <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
   </si>
   <si>
-    <t>If the Appointment's status is "cancelled" then all participants are expected to have their calendars released for the appointment period, and as such any Slots that were marked as BUSY can be re-set to FREE.
-This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
+    <t>If the Appointment's status is "cancelled" then all participants are expected to have their calendars released for the appointment period, and as such any Slots that were marked as BUSY can be re-set to FREE.  This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -524,9 +522,7 @@
     <t>The priority of the appointment. Can be used to make informed decisions if needing to re-prioritize appointments. (The iCal Standard specifies 0 as undefined, 1 as highest, 9 as lowest priority).</t>
   </si>
   <si>
-    <t>Seeking implementer feedback on this property and how interoperable it is.--Using an extension to record a codeableconcept for named values may be tested at a future connectathon.</t>
+    <t>Seeking implementer feedback on this property and how interoperable it is.  Using an extension to record a codeableconcept for named values may be tested at a future connectathon.</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -679,9 +675,7 @@
     <t>Additional comments about the appointment.</t>
   </si>
   <si>
-    <t>Additional text to aid in facilitating the appointment. For instance, a comment might be, "patient should proceed immediately to infusion room upon arrival"--Where this is a planned appointment and the start/end dates are not set then this field can be used to provide additional guidance on the details of the appointment request, including any restrictions on when to book it.</t>
+    <t>Additional text to aid in facilitating the appointment. For instance, a comment might be, "patient should proceed immediately to infusion room upon arrival"  Where this is a planned appointment and the start/end dates are not set then this field can be used to provide additional guidance on the details of the appointment request, including any restrictions on when to book it.</t>
   </si>
   <si>
     <t>.subjectOf.observation[@moodCode = 'EVN'][code = 'annotation'].value</t>
@@ -778,11 +772,7 @@
     <t>Role of participant in the appointment.</t>
   </si>
   <si>
-    <t>The role of the participant can be used to declare what the actor will be doing in the scope of this appointment.--If the actor is not specified, then it is expected that the actor will be filled in at a later stage of planning.--This value SHALL be the same when creating an AppointmentResponse so that they can be matched, and subsequently update the Appointment.</t>
+    <t>The role of the participant can be used to declare what the actor will be doing in the scope of this appointment.  If the actor is not specified, then it is expected that the actor will be filled in at a later stage of planning.  This value SHALL be the same when creating an AppointmentResponse so that they can be matched, and subsequently update the Appointment.</t>
   </si>
   <si>
     <t>Role of participant in encounter.</t>
